--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data8.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data8.xlsx
@@ -282,16 +282,16 @@
         <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.30894006430702337</v>
+        <v>0.3089688933878612</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8110314159044315</v>
+        <v>-0.811372372870593</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15908059420392454</v>
+        <v>0.15907160518528332</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09167511194891487</v>
+        <v>0.09165073234461331</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
